--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_115_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_115_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.935785867669893, 4.352732924417257]</t>
+          <t>[3.9326728557855586, 4.355845936301591]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.307567656621309, 0.5718445046061849]</t>
+          <t>[0.30763170458392475, 0.5717804566435691]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2.82115006910999e-08</v>
+        <v>2.789938591263308e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>2.82115006910999e-08</v>
+        <v>2.789938591263308e-08</v>
       </c>
       <c r="W2" t="n">
         <v>6.698158158158336</v>
